--- a/Sasha/Таблица/snail_movement_2023.xlsx
+++ b/Sasha/Таблица/snail_movement_2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Text\Paper_2023\Sasha\Таблица\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Text\Paper_2023\Sasha\r_calc_snailmovent\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="36">
   <si>
     <t>Free</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Barbarity</t>
+  </si>
+  <si>
+    <t>Speed</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P303"/>
+  <dimension ref="A1:Q303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +484,7 @@
     <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -530,8 +533,11 @@
       <c r="P1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45143</v>
       </c>
@@ -580,8 +586,11 @@
       <c r="P2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45143</v>
       </c>
@@ -630,8 +639,11 @@
       <c r="P3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45143</v>
       </c>
@@ -680,8 +692,11 @@
       <c r="P4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45143</v>
       </c>
@@ -730,8 +745,11 @@
       <c r="P5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45143</v>
       </c>
@@ -780,8 +798,11 @@
       <c r="P6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45143</v>
       </c>
@@ -830,8 +851,11 @@
       <c r="P7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45143</v>
       </c>
@@ -880,8 +904,11 @@
       <c r="P8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45143</v>
       </c>
@@ -930,8 +957,11 @@
       <c r="P9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45143</v>
       </c>
@@ -980,8 +1010,11 @@
       <c r="P10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45143</v>
       </c>
@@ -1030,8 +1063,11 @@
       <c r="P11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45143</v>
       </c>
@@ -1080,8 +1116,11 @@
       <c r="P12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45143</v>
       </c>
@@ -1130,8 +1169,11 @@
       <c r="P13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45143</v>
       </c>
@@ -1180,8 +1222,11 @@
       <c r="P14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45143</v>
       </c>
@@ -1230,8 +1275,11 @@
       <c r="P15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45143</v>
       </c>
@@ -1280,8 +1328,11 @@
       <c r="P16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45143</v>
       </c>
@@ -1330,8 +1381,11 @@
       <c r="P17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45143</v>
       </c>
@@ -1380,8 +1434,11 @@
       <c r="P18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45143</v>
       </c>
@@ -1430,8 +1487,11 @@
       <c r="P19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45143</v>
       </c>
@@ -1480,8 +1540,11 @@
       <c r="P20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45143</v>
       </c>
@@ -1530,8 +1593,11 @@
       <c r="P21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45145</v>
       </c>
@@ -1580,8 +1646,11 @@
       <c r="P22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45145</v>
       </c>
@@ -1630,8 +1699,11 @@
       <c r="P23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>9.3457943925233641E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45145</v>
       </c>
@@ -1680,8 +1752,11 @@
       <c r="P24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45145</v>
       </c>
@@ -1730,8 +1805,11 @@
       <c r="P25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45145</v>
       </c>
@@ -1780,8 +1858,11 @@
       <c r="P26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45145</v>
       </c>
@@ -1830,8 +1911,11 @@
       <c r="P27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45145</v>
       </c>
@@ -1880,8 +1964,11 @@
       <c r="P28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>6.9444444444444448E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45145</v>
       </c>
@@ -1930,8 +2017,11 @@
       <c r="P29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>9.166666666666666E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45145</v>
       </c>
@@ -1980,8 +2070,11 @@
       <c r="P30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45145</v>
       </c>
@@ -2030,8 +2123,11 @@
       <c r="P31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>9.7560975609756101E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45145</v>
       </c>
@@ -2080,8 +2176,11 @@
       <c r="P32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45145</v>
       </c>
@@ -2130,8 +2229,11 @@
       <c r="P33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45145</v>
       </c>
@@ -2180,8 +2282,11 @@
       <c r="P34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>0.1095890410958904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45145</v>
       </c>
@@ -2230,8 +2335,11 @@
       <c r="P35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45145</v>
       </c>
@@ -2280,8 +2388,11 @@
       <c r="P36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45145</v>
       </c>
@@ -2330,8 +2441,11 @@
       <c r="P37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45145</v>
       </c>
@@ -2380,8 +2494,11 @@
       <c r="P38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>0.12048192771084337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45146</v>
       </c>
@@ -2430,8 +2547,11 @@
       <c r="P39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45146</v>
       </c>
@@ -2480,8 +2600,11 @@
       <c r="P40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>7.9365079365079361E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45146</v>
       </c>
@@ -2530,8 +2653,11 @@
       <c r="P41" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45146</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P42" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45146</v>
       </c>
@@ -2630,8 +2759,11 @@
       <c r="P43" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>9.166666666666666E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45146</v>
       </c>
@@ -2680,8 +2812,11 @@
       <c r="P44" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45146</v>
       </c>
@@ -2730,8 +2865,11 @@
       <c r="P45" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>8.5714285714285715E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45146</v>
       </c>
@@ -2780,8 +2918,11 @@
       <c r="P46" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45146</v>
       </c>
@@ -2830,8 +2971,11 @@
       <c r="P47" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45146</v>
       </c>
@@ -2880,8 +3024,11 @@
       <c r="P48" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45146</v>
       </c>
@@ -2930,8 +3077,11 @@
       <c r="P49" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>5.9523809523809521E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45146</v>
       </c>
@@ -2980,8 +3130,11 @@
       <c r="P50" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45146</v>
       </c>
@@ -3030,8 +3183,11 @@
       <c r="P51" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45146</v>
       </c>
@@ -3080,8 +3236,11 @@
       <c r="P52" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45147</v>
       </c>
@@ -3130,8 +3289,11 @@
       <c r="P53" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45147</v>
       </c>
@@ -3180,8 +3342,11 @@
       <c r="P54" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45147</v>
       </c>
@@ -3230,8 +3395,11 @@
       <c r="P55" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45147</v>
       </c>
@@ -3280,8 +3448,11 @@
       <c r="P56" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45147</v>
       </c>
@@ -3330,8 +3501,11 @@
       <c r="P57" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45147</v>
       </c>
@@ -3380,8 +3554,11 @@
       <c r="P58" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45147</v>
       </c>
@@ -3430,8 +3607,11 @@
       <c r="P59" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45147</v>
       </c>
@@ -3480,8 +3660,11 @@
       <c r="P60" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45147</v>
       </c>
@@ -3530,8 +3713,11 @@
       <c r="P61" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45147</v>
       </c>
@@ -3580,8 +3766,11 @@
       <c r="P62" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45147</v>
       </c>
@@ -3630,8 +3819,11 @@
       <c r="P63" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45147</v>
       </c>
@@ -3680,8 +3872,11 @@
       <c r="P64" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45147</v>
       </c>
@@ -3730,8 +3925,11 @@
       <c r="P65" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45147</v>
       </c>
@@ -3780,8 +3978,11 @@
       <c r="P66" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45147</v>
       </c>
@@ -3830,8 +4031,11 @@
       <c r="P67" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45147</v>
       </c>
@@ -3880,8 +4084,11 @@
       <c r="P68" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45147</v>
       </c>
@@ -3930,8 +4137,11 @@
       <c r="P69" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45147</v>
       </c>
@@ -3980,8 +4190,11 @@
       <c r="P70" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>0.10101010101010101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45147</v>
       </c>
@@ -4030,8 +4243,11 @@
       <c r="P71" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>7.0175438596491224E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45147</v>
       </c>
@@ -4080,8 +4296,11 @@
       <c r="P72" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>7.7586206896551727E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45147</v>
       </c>
@@ -4130,8 +4349,11 @@
       <c r="P73" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45147</v>
       </c>
@@ -4180,8 +4402,11 @@
       <c r="P74" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>9.8214285714285712E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45147</v>
       </c>
@@ -4230,8 +4455,11 @@
       <c r="P75" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>9.166666666666666E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45147</v>
       </c>
@@ -4280,8 +4508,11 @@
       <c r="P76" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45147</v>
       </c>
@@ -4330,8 +4561,11 @@
       <c r="P77" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45147</v>
       </c>
@@ -4380,8 +4614,11 @@
       <c r="P78" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45147</v>
       </c>
@@ -4430,8 +4667,11 @@
       <c r="P79" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>6.7307692307692304E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45147</v>
       </c>
@@ -4480,8 +4720,11 @@
       <c r="P80" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45147</v>
       </c>
@@ -4530,8 +4773,11 @@
       <c r="P81" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>7.5630252100840331E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45147</v>
       </c>
@@ -4580,8 +4826,11 @@
       <c r="P82" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>0.10126582278481013</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45147</v>
       </c>
@@ -4630,8 +4879,11 @@
       <c r="P83" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45147</v>
       </c>
@@ -4680,8 +4932,11 @@
       <c r="P84" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>0.15686274509803921</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45147</v>
       </c>
@@ -4730,8 +4985,11 @@
       <c r="P85" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>0.10344827586206896</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45147</v>
       </c>
@@ -4780,8 +5038,11 @@
       <c r="P86" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45147</v>
       </c>
@@ -4830,8 +5091,11 @@
       <c r="P87" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45147</v>
       </c>
@@ -4880,8 +5144,11 @@
       <c r="P88" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45147</v>
       </c>
@@ -4930,8 +5197,11 @@
       <c r="P89" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45147</v>
       </c>
@@ -4980,8 +5250,11 @@
       <c r="P90" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45147</v>
       </c>
@@ -5030,8 +5303,11 @@
       <c r="P91" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45148</v>
       </c>
@@ -5080,8 +5356,11 @@
       <c r="P92" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45148</v>
       </c>
@@ -5130,8 +5409,11 @@
       <c r="P93" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>6.1224489795918366E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45148</v>
       </c>
@@ -5180,8 +5462,11 @@
       <c r="P94" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45148</v>
       </c>
@@ -5230,8 +5515,11 @@
       <c r="P95" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45148</v>
       </c>
@@ -5280,8 +5568,11 @@
       <c r="P96" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45148</v>
       </c>
@@ -5330,8 +5621,11 @@
       <c r="P97" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>5.6603773584905662E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45148</v>
       </c>
@@ -5380,8 +5674,11 @@
       <c r="P98" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45148</v>
       </c>
@@ -5430,8 +5727,11 @@
       <c r="P99" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45148</v>
       </c>
@@ -5480,8 +5780,11 @@
       <c r="P100" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45148</v>
       </c>
@@ -5530,8 +5833,11 @@
       <c r="P101" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45148</v>
       </c>
@@ -5580,8 +5886,11 @@
       <c r="P102" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45148</v>
       </c>
@@ -5630,8 +5939,11 @@
       <c r="P103" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45148</v>
       </c>
@@ -5680,8 +5992,11 @@
       <c r="P104" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <v>0.13114754098360656</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45148</v>
       </c>
@@ -5730,8 +6045,11 @@
       <c r="P105" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <v>0.15517241379310345</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45148</v>
       </c>
@@ -5780,8 +6098,11 @@
       <c r="P106" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45148</v>
       </c>
@@ -5830,8 +6151,11 @@
       <c r="P107" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>9.166666666666666E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45148</v>
       </c>
@@ -5880,8 +6204,11 @@
       <c r="P108" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>7.7777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45148</v>
       </c>
@@ -5930,8 +6257,11 @@
       <c r="P109" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>0.13043478260869565</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45148</v>
       </c>
@@ -5980,8 +6310,11 @@
       <c r="P110" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45148</v>
       </c>
@@ -6030,8 +6363,11 @@
       <c r="P111" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45148</v>
       </c>
@@ -6080,8 +6416,11 @@
       <c r="P112" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45148</v>
       </c>
@@ -6130,8 +6469,11 @@
       <c r="P113" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45148</v>
       </c>
@@ -6180,8 +6522,11 @@
       <c r="P114" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>0.13114754098360656</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45148</v>
       </c>
@@ -6230,8 +6575,11 @@
       <c r="P115" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45148</v>
       </c>
@@ -6280,8 +6628,11 @@
       <c r="P116" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45148</v>
       </c>
@@ -6330,8 +6681,11 @@
       <c r="P117" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45148</v>
       </c>
@@ -6380,8 +6734,11 @@
       <c r="P118" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45148</v>
       </c>
@@ -6430,8 +6787,11 @@
       <c r="P119" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <v>0.11475409836065574</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45148</v>
       </c>
@@ -6480,8 +6840,11 @@
       <c r="P120" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45148</v>
       </c>
@@ -6530,8 +6893,11 @@
       <c r="P121" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>0.11475409836065574</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45149</v>
       </c>
@@ -6580,8 +6946,11 @@
       <c r="P122" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45149</v>
       </c>
@@ -6630,8 +6999,11 @@
       <c r="P123" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45149</v>
       </c>
@@ -6680,8 +7052,11 @@
       <c r="P124" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45149</v>
       </c>
@@ -6730,8 +7105,11 @@
       <c r="P125" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45149</v>
       </c>
@@ -6780,8 +7158,11 @@
       <c r="P126" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q126">
+        <v>6.0240963855421686E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45149</v>
       </c>
@@ -6830,8 +7211,11 @@
       <c r="P127" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45149</v>
       </c>
@@ -6880,8 +7264,11 @@
       <c r="P128" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45149</v>
       </c>
@@ -6930,8 +7317,11 @@
       <c r="P129" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45149</v>
       </c>
@@ -6980,8 +7370,11 @@
       <c r="P130" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q130">
+        <v>7.3394495412844041E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45149</v>
       </c>
@@ -7030,8 +7423,11 @@
       <c r="P131" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q131">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45149</v>
       </c>
@@ -7080,8 +7476,11 @@
       <c r="P132" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45149</v>
       </c>
@@ -7130,8 +7529,11 @@
       <c r="P133" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45149</v>
       </c>
@@ -7180,8 +7582,11 @@
       <c r="P134" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45149</v>
       </c>
@@ -7230,8 +7635,11 @@
       <c r="P135" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q135">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45149</v>
       </c>
@@ -7280,8 +7688,11 @@
       <c r="P136" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45149</v>
       </c>
@@ -7330,8 +7741,11 @@
       <c r="P137" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45149</v>
       </c>
@@ -7380,8 +7794,11 @@
       <c r="P138" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q138">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45149</v>
       </c>
@@ -7430,8 +7847,11 @@
       <c r="P139" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q139">
+        <v>8.2568807339449546E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45149</v>
       </c>
@@ -7480,8 +7900,11 @@
       <c r="P140" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q140">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45149</v>
       </c>
@@ -7530,8 +7953,11 @@
       <c r="P141" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <v>8.1395348837209308E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45149</v>
       </c>
@@ -7580,8 +8006,11 @@
       <c r="P142" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q142">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45149</v>
       </c>
@@ -7630,8 +8059,11 @@
       <c r="P143" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q143">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45149</v>
       </c>
@@ -7680,8 +8112,11 @@
       <c r="P144" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q144">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45149</v>
       </c>
@@ -7730,8 +8165,11 @@
       <c r="P145" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q145">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45149</v>
       </c>
@@ -7780,8 +8218,11 @@
       <c r="P146" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q146">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45149</v>
       </c>
@@ -7830,8 +8271,11 @@
       <c r="P147" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q147">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45149</v>
       </c>
@@ -7880,8 +8324,11 @@
       <c r="P148" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q148">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45149</v>
       </c>
@@ -7930,8 +8377,11 @@
       <c r="P149" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q149">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45149</v>
       </c>
@@ -7980,8 +8430,11 @@
       <c r="P150" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q150">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45149</v>
       </c>
@@ -8030,8 +8483,11 @@
       <c r="P151" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q151">
+        <v>7.6190476190476197E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45149</v>
       </c>
@@ -8080,8 +8536,11 @@
       <c r="P152" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q152">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45149</v>
       </c>
@@ -8130,8 +8589,11 @@
       <c r="P153" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q153">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45149</v>
       </c>
@@ -8180,8 +8642,11 @@
       <c r="P154" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q154">
+        <v>0.10606060606060606</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45149</v>
       </c>
@@ -8230,8 +8695,11 @@
       <c r="P155" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45149</v>
       </c>
@@ -8280,8 +8748,11 @@
       <c r="P156" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45149</v>
       </c>
@@ -8330,8 +8801,11 @@
       <c r="P157" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45149</v>
       </c>
@@ -8380,8 +8854,11 @@
       <c r="P158" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q158">
+        <v>0.11627906976744186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45149</v>
       </c>
@@ -8430,8 +8907,11 @@
       <c r="P159" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q159">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45149</v>
       </c>
@@ -8480,8 +8960,11 @@
       <c r="P160" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45149</v>
       </c>
@@ -8530,8 +9013,11 @@
       <c r="P161" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q161">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45149</v>
       </c>
@@ -8580,8 +9066,11 @@
       <c r="P162" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q162">
+        <v>0.10256410256410256</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>45149</v>
       </c>
@@ -8630,8 +9119,11 @@
       <c r="P163" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45149</v>
       </c>
@@ -8680,8 +9172,11 @@
       <c r="P164" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q164">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>45149</v>
       </c>
@@ -8730,8 +9225,11 @@
       <c r="P165" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45149</v>
       </c>
@@ -8780,8 +9278,11 @@
       <c r="P166" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>45149</v>
       </c>
@@ -8830,8 +9331,11 @@
       <c r="P167" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>45149</v>
       </c>
@@ -8880,8 +9384,11 @@
       <c r="P168" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>45149</v>
       </c>
@@ -8930,8 +9437,11 @@
       <c r="P169" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q169">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>45149</v>
       </c>
@@ -8980,8 +9490,11 @@
       <c r="P170" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>45149</v>
       </c>
@@ -9030,8 +9543,11 @@
       <c r="P171" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>45149</v>
       </c>
@@ -9080,8 +9596,11 @@
       <c r="P172" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>45150</v>
       </c>
@@ -9130,8 +9649,11 @@
       <c r="P173" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q173">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>45150</v>
       </c>
@@ -9180,8 +9702,11 @@
       <c r="P174" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q174">
+        <v>8.1632653061224483E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>45150</v>
       </c>
@@ -9230,8 +9755,11 @@
       <c r="P175" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>45150</v>
       </c>
@@ -9280,8 +9808,11 @@
       <c r="P176" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q176">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>45150</v>
       </c>
@@ -9330,8 +9861,11 @@
       <c r="P177" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>45150</v>
       </c>
@@ -9380,8 +9914,11 @@
       <c r="P178" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q178">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>45150</v>
       </c>
@@ -9430,8 +9967,11 @@
       <c r="P179" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>45150</v>
       </c>
@@ -9480,8 +10020,11 @@
       <c r="P180" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>45150</v>
       </c>
@@ -9530,8 +10073,11 @@
       <c r="P181" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q181">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>45150</v>
       </c>
@@ -9580,8 +10126,11 @@
       <c r="P182" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>45152</v>
       </c>
@@ -9630,8 +10179,11 @@
       <c r="P183" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q183">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>45152</v>
       </c>
@@ -9680,8 +10232,11 @@
       <c r="P184" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q184">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>45152</v>
       </c>
@@ -9730,8 +10285,11 @@
       <c r="P185" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q185">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>45152</v>
       </c>
@@ -9780,8 +10338,11 @@
       <c r="P186" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q186">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>45152</v>
       </c>
@@ -9830,8 +10391,11 @@
       <c r="P187" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q187">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>45152</v>
       </c>
@@ -9880,8 +10444,11 @@
       <c r="P188" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q188">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>45152</v>
       </c>
@@ -9930,8 +10497,11 @@
       <c r="P189" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q189">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>45152</v>
       </c>
@@ -9980,8 +10550,11 @@
       <c r="P190" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q190">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>45152</v>
       </c>
@@ -10030,8 +10603,11 @@
       <c r="P191" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q191">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>45152</v>
       </c>
@@ -10080,8 +10656,11 @@
       <c r="P192" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q192">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>45152</v>
       </c>
@@ -10130,8 +10709,11 @@
       <c r="P193" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>45152</v>
       </c>
@@ -10180,8 +10762,11 @@
       <c r="P194" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q194">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>45152</v>
       </c>
@@ -10230,8 +10815,11 @@
       <c r="P195" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q195">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>45152</v>
       </c>
@@ -10280,8 +10868,11 @@
       <c r="P196" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>45152</v>
       </c>
@@ -10330,8 +10921,11 @@
       <c r="P197" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>45154</v>
       </c>
@@ -10380,8 +10974,11 @@
       <c r="P198" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>45154</v>
       </c>
@@ -10430,8 +11027,11 @@
       <c r="P199" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q199">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>45154</v>
       </c>
@@ -10480,8 +11080,11 @@
       <c r="P200" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q200">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>45154</v>
       </c>
@@ -10530,8 +11133,11 @@
       <c r="P201" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q201">
+        <v>6.9306930693069313E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>45154</v>
       </c>
@@ -10580,8 +11186,11 @@
       <c r="P202" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>45155</v>
       </c>
@@ -10630,8 +11239,11 @@
       <c r="P203" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>45155</v>
       </c>
@@ -10680,8 +11292,11 @@
       <c r="P204" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q204">
+        <v>5.4054054054054057E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>45155</v>
       </c>
@@ -10730,8 +11345,11 @@
       <c r="P205" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>45155</v>
       </c>
@@ -10780,8 +11398,11 @@
       <c r="P206" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q206">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>45155</v>
       </c>
@@ -10830,8 +11451,11 @@
       <c r="P207" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>45155</v>
       </c>
@@ -10880,8 +11504,11 @@
       <c r="P208" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q208">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>45155</v>
       </c>
@@ -10930,8 +11557,11 @@
       <c r="P209" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>45155</v>
       </c>
@@ -10980,8 +11610,11 @@
       <c r="P210" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q210">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>45155</v>
       </c>
@@ -11030,8 +11663,11 @@
       <c r="P211" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q211">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>45155</v>
       </c>
@@ -11080,8 +11716,11 @@
       <c r="P212" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>45155</v>
       </c>
@@ -11130,8 +11769,11 @@
       <c r="P213" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>45155</v>
       </c>
@@ -11180,8 +11822,11 @@
       <c r="P214" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>45155</v>
       </c>
@@ -11230,8 +11875,11 @@
       <c r="P215" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q215">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>45155</v>
       </c>
@@ -11280,8 +11928,11 @@
       <c r="P216" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>45155</v>
       </c>
@@ -11330,8 +11981,11 @@
       <c r="P217" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>45155</v>
       </c>
@@ -11380,8 +12034,11 @@
       <c r="P218" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>45155</v>
       </c>
@@ -11430,8 +12087,11 @@
       <c r="P219" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>45155</v>
       </c>
@@ -11480,8 +12140,11 @@
       <c r="P220" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q220">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>45155</v>
       </c>
@@ -11530,8 +12193,11 @@
       <c r="P221" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q221">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>45155</v>
       </c>
@@ -11580,8 +12246,11 @@
       <c r="P222" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q222">
+        <v>5.3571428571428568E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>45155</v>
       </c>
@@ -11630,8 +12299,11 @@
       <c r="P223" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q223">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>45155</v>
       </c>
@@ -11680,8 +12352,11 @@
       <c r="P224" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q224">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>45155</v>
       </c>
@@ -11730,8 +12405,11 @@
       <c r="P225" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q225">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>45155</v>
       </c>
@@ -11780,8 +12458,11 @@
       <c r="P226" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q226">
+        <v>5.2173913043478258E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>45155</v>
       </c>
@@ -11830,8 +12511,11 @@
       <c r="P227" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q227">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>45155</v>
       </c>
@@ -11880,8 +12564,11 @@
       <c r="P228" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q228">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>45155</v>
       </c>
@@ -11930,8 +12617,11 @@
       <c r="P229" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q229">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>45155</v>
       </c>
@@ -11980,8 +12670,11 @@
       <c r="P230" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q230">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>45155</v>
       </c>
@@ -12030,8 +12723,11 @@
       <c r="P231" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q231">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>45155</v>
       </c>
@@ -12080,8 +12776,11 @@
       <c r="P232" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q232">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>45155</v>
       </c>
@@ -12130,8 +12829,11 @@
       <c r="P233" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q233">
+        <v>4.5045045045045043E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>45155</v>
       </c>
@@ -12180,8 +12882,11 @@
       <c r="P234" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q234">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>45155</v>
       </c>
@@ -12230,8 +12935,11 @@
       <c r="P235" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q235">
+        <v>8.0808080808080815E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>45155</v>
       </c>
@@ -12280,8 +12988,11 @@
       <c r="P236" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q236">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>45155</v>
       </c>
@@ -12330,8 +13041,11 @@
       <c r="P237" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q237">
+        <v>8.5714285714285715E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>45155</v>
       </c>
@@ -12380,8 +13094,11 @@
       <c r="P238" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q238">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>45155</v>
       </c>
@@ -12430,8 +13147,11 @@
       <c r="P239" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q239">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>45155</v>
       </c>
@@ -12480,8 +13200,11 @@
       <c r="P240" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q240">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>45155</v>
       </c>
@@ -12530,8 +13253,11 @@
       <c r="P241" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q241">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>45155</v>
       </c>
@@ -12580,8 +13306,11 @@
       <c r="P242" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>45156</v>
       </c>
@@ -12630,8 +13359,11 @@
       <c r="P243" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q243">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>45156</v>
       </c>
@@ -12680,8 +13412,11 @@
       <c r="P244" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>45156</v>
       </c>
@@ -12730,8 +13465,11 @@
       <c r="P245" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q245">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>45156</v>
       </c>
@@ -12780,8 +13518,11 @@
       <c r="P246" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q246" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>45156</v>
       </c>
@@ -12830,8 +13571,11 @@
       <c r="P247" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>45156</v>
       </c>
@@ -12880,8 +13624,11 @@
       <c r="P248" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>45156</v>
       </c>
@@ -12930,8 +13677,11 @@
       <c r="P249" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>45156</v>
       </c>
@@ -12980,8 +13730,11 @@
       <c r="P250" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q250">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>45156</v>
       </c>
@@ -13030,8 +13783,11 @@
       <c r="P251" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q251">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>45156</v>
       </c>
@@ -13080,8 +13836,11 @@
       <c r="P252" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q252">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>45156</v>
       </c>
@@ -13130,8 +13889,11 @@
       <c r="P253" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q253">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>45156</v>
       </c>
@@ -13180,8 +13942,11 @@
       <c r="P254" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q254">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>45156</v>
       </c>
@@ -13230,8 +13995,11 @@
       <c r="P255" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q255">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>45156</v>
       </c>
@@ -13280,8 +14048,11 @@
       <c r="P256" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q256">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>45156</v>
       </c>
@@ -13330,8 +14101,11 @@
       <c r="P257" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q257">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>45156</v>
       </c>
@@ -13380,8 +14154,11 @@
       <c r="P258" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q258">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>45156</v>
       </c>
@@ -13430,8 +14207,11 @@
       <c r="P259" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>45156</v>
       </c>
@@ -13480,8 +14260,11 @@
       <c r="P260" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>45156</v>
       </c>
@@ -13530,8 +14313,11 @@
       <c r="P261" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q261">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>45156</v>
       </c>
@@ -13580,8 +14366,11 @@
       <c r="P262" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q262">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>45156</v>
       </c>
@@ -13630,8 +14419,11 @@
       <c r="P263" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q263">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>45156</v>
       </c>
@@ -13680,8 +14472,11 @@
       <c r="P264" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>45156</v>
       </c>
@@ -13730,8 +14525,11 @@
       <c r="P265" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q265">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>45156</v>
       </c>
@@ -13780,8 +14578,11 @@
       <c r="P266" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q266">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>45156</v>
       </c>
@@ -13830,8 +14631,11 @@
       <c r="P267" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q267">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>45157</v>
       </c>
@@ -13880,8 +14684,11 @@
       <c r="P268" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q268">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>45157</v>
       </c>
@@ -13930,8 +14737,11 @@
       <c r="P269" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q269">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>45157</v>
       </c>
@@ -13980,8 +14790,11 @@
       <c r="P270" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q270">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>45157</v>
       </c>
@@ -14030,8 +14843,11 @@
       <c r="P271" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q271">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>45157</v>
       </c>
@@ -14080,8 +14896,11 @@
       <c r="P272" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q272">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>45157</v>
       </c>
@@ -14130,8 +14949,11 @@
       <c r="P273" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>45157</v>
       </c>
@@ -14180,8 +15002,11 @@
       <c r="P274" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q274">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>45157</v>
       </c>
@@ -14230,8 +15055,11 @@
       <c r="P275" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q275">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>45157</v>
       </c>
@@ -14280,8 +15108,11 @@
       <c r="P276" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q276">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>45157</v>
       </c>
@@ -14330,8 +15161,11 @@
       <c r="P277" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q277">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>45157</v>
       </c>
@@ -14380,8 +15214,11 @@
       <c r="P278" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q278">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>45157</v>
       </c>
@@ -14430,8 +15267,11 @@
       <c r="P279" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q279">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>45157</v>
       </c>
@@ -14480,8 +15320,11 @@
       <c r="P280" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q280">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>45157</v>
       </c>
@@ -14530,8 +15373,11 @@
       <c r="P281" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q281">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>45157</v>
       </c>
@@ -14580,8 +15426,11 @@
       <c r="P282" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q282">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>45157</v>
       </c>
@@ -14630,8 +15479,11 @@
       <c r="P283" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q283">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>45157</v>
       </c>
@@ -14680,8 +15532,11 @@
       <c r="P284" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q284">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>45157</v>
       </c>
@@ -14730,8 +15585,11 @@
       <c r="P285" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q285">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>45157</v>
       </c>
@@ -14780,8 +15638,11 @@
       <c r="P286" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q286" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>45157</v>
       </c>
@@ -14830,8 +15691,11 @@
       <c r="P287" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q287">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>45157</v>
       </c>
@@ -14880,8 +15744,11 @@
       <c r="P288" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q288">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>45157</v>
       </c>
@@ -14930,8 +15797,11 @@
       <c r="P289" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q289">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>45157</v>
       </c>
@@ -14980,8 +15850,11 @@
       <c r="P290" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q290">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>45157</v>
       </c>
@@ -15030,8 +15903,11 @@
       <c r="P291" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q291">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>45157</v>
       </c>
@@ -15080,8 +15956,11 @@
       <c r="P292" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q292">
+        <v>5.128205128205128E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>45157</v>
       </c>
@@ -15130,8 +16009,11 @@
       <c r="P293" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q293">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>45157</v>
       </c>
@@ -15180,8 +16062,11 @@
       <c r="P294" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q294">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>45157</v>
       </c>
@@ -15230,8 +16115,11 @@
       <c r="P295" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>45157</v>
       </c>
@@ -15280,8 +16168,11 @@
       <c r="P296" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>45157</v>
       </c>
@@ -15330,8 +16221,11 @@
       <c r="P297" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>45157</v>
       </c>
@@ -15380,8 +16274,11 @@
       <c r="P298" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q298">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>45157</v>
       </c>
@@ -15430,8 +16327,11 @@
       <c r="P299" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q299">
+        <v>5.8333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>45157</v>
       </c>
@@ -15480,8 +16380,11 @@
       <c r="P300" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q300">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>45157</v>
       </c>
@@ -15530,8 +16433,11 @@
       <c r="P301" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q301">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>45157</v>
       </c>
@@ -15580,8 +16486,11 @@
       <c r="P302" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q302">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>45157</v>
       </c>
@@ -15629,6 +16538,9 @@
       </c>
       <c r="P303" t="s">
         <v>32</v>
+      </c>
+      <c r="Q303">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
